--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Encuesta Directivos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Encuesta Equipos</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Encuesta Líderes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Encuesta Planes de estudio</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Encuesta directivos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -504,7 +504,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>15</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>23</v>
@@ -570,7 +570,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
@@ -603,7 +603,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>51</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -650,16 +650,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>47</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>32</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>16</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -758,17 +758,17 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>48</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -863,11 +863,11 @@
         <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -881,26 +881,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -914,26 +914,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>61</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -980,26 +980,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1013,26 +1013,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1121,17 +1121,17 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1160,11 +1160,11 @@
         <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1178,13 +1178,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1220,17 +1220,17 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
         <v>71</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>19</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1319,17 +1319,17 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1376,26 +1376,26 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>26</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1421,14 +1421,14 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1442,16 +1442,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>21</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1508,16 +1508,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>26</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1544,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1583,17 +1583,17 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>47</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1673,26 +1673,26 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1739,26 +1739,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H40" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1805,16 +1805,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>39</v>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1871,26 +1871,26 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H44" t="n">
         <v>72</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1907,23 +1907,23 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -1973,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
         <v>14</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>43</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2036,16 +2036,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>14</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
         <v>30</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2111,17 +2111,17 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2150,11 +2150,11 @@
         <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -2177,17 +2177,17 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>19</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -2315,11 +2315,11 @@
         <v>19</v>
       </c>
       <c r="H57" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -2342,17 +2342,17 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>52</v>
       </c>
       <c r="H58" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2402,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2428,30 +2428,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>061</t>
+          <t>060</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>25</v>
       </c>
-      <c r="H61" t="n">
-        <v>50</v>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2461,11 +2461,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>062</t>
+          <t>061</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -2474,17 +2474,17 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2494,11 +2494,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>063</t>
+          <t>062</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2507,17 +2507,17 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2527,11 +2527,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>064</t>
+          <t>063</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -2540,17 +2540,17 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2560,30 +2560,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>065</t>
+          <t>064</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2593,30 +2593,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>065</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2626,30 +2626,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>067</t>
+          <t>066</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2659,11 +2659,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>068</t>
+          <t>067</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2672,17 +2672,17 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>069</t>
+          <t>068</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2705,17 +2705,17 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2725,30 +2725,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>070</t>
+          <t>069</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2758,11 +2758,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>071</t>
+          <t>070</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -2774,14 +2774,14 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H71" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>072</t>
+          <t>071</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2804,17 +2804,17 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H72" t="n">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>073</t>
+          <t>072</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -2840,14 +2840,14 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H73" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>074</t>
+          <t>073</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2870,17 +2870,17 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H74" t="n">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>075</t>
+          <t>074</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -2906,14 +2906,14 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>075</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2939,14 +2939,14 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>077</t>
+          <t>076</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2972,14 +2972,14 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H77" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>079</t>
+          <t>077</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2999,20 +2999,20 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H78" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3022,30 +3022,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>080</t>
+          <t>079</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>082</t>
+          <t>080</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3065,20 +3065,20 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H80" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3088,30 +3088,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>083</t>
+          <t>081</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3121,30 +3121,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>082</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3154,30 +3154,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>085</t>
+          <t>083</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3187,20 +3187,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>086</t>
+          <t>084</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3220,11 +3220,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>087</t>
+          <t>085</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>088</t>
+          <t>086</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3266,17 +3266,17 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3286,30 +3286,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>089</t>
+          <t>087</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3319,11 +3319,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>088</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3335,14 +3335,14 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3352,30 +3352,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>091</t>
+          <t>089</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3385,11 +3385,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>092</t>
+          <t>090</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -3398,17 +3398,17 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H90" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3418,11 +3418,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>093</t>
+          <t>091</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -3431,17 +3431,17 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H91" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3451,30 +3451,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>094</t>
+          <t>092</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H92" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3484,11 +3484,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>095</t>
+          <t>093</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -3500,14 +3500,14 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H93" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3517,11 +3517,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>096</t>
+          <t>094</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -3530,17 +3530,17 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>097</t>
+          <t>095</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -3566,14 +3566,14 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H95" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3583,11 +3583,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>098</t>
+          <t>096</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -3596,17 +3596,17 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H96" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3616,30 +3616,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>099</t>
+          <t>097</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H97" t="n">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3649,30 +3649,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>098</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>099</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3692,20 +3692,20 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3715,30 +3715,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3758,20 +3758,20 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3781,30 +3781,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3824,20 +3824,20 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3847,30 +3847,30 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -3893,17 +3893,17 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H105" t="n">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -3926,17 +3926,17 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3946,11 +3946,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -3959,17 +3959,17 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -3979,11 +3979,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -3992,17 +3992,17 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
         <v>4</v>
       </c>
-      <c r="G108" t="n">
-        <v>20</v>
-      </c>
       <c r="H108" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4012,11 +4012,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -4028,14 +4028,14 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4045,11 +4045,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -4058,17 +4058,17 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>20</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4078,30 +4078,30 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4111,11 +4111,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -4124,17 +4124,17 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H112" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4157,17 +4157,17 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H113" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4177,11 +4177,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -4190,17 +4190,17 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4210,11 +4210,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -4223,17 +4223,17 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H115" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4243,30 +4243,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4276,11 +4276,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4289,17 +4289,17 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4309,30 +4309,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4342,11 +4342,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -4358,14 +4358,14 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4375,11 +4375,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -4388,17 +4388,17 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4408,30 +4408,30 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4441,30 +4441,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4474,30 +4474,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4507,30 +4507,30 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4540,11 +4540,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -4553,17 +4553,17 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4573,30 +4573,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4606,11 +4606,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -4619,17 +4619,17 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>26</v>
       </c>
       <c r="H127" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4655,14 +4655,14 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H128" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4672,11 +4672,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -4688,14 +4688,14 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H129" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4721,14 +4721,14 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H130" t="n">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4748,20 +4748,20 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4771,30 +4771,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4804,7 +4804,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4820,14 +4820,14 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4837,30 +4837,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H134" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4870,30 +4870,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4903,30 +4903,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4936,30 +4936,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -4969,30 +4969,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5002,30 +5002,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -5081,17 +5081,17 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5101,30 +5101,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -5144,20 +5144,20 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5177,20 +5177,20 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5200,30 +5200,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H145" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5233,30 +5233,30 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H146" t="n">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5266,30 +5266,30 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5299,30 +5299,30 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5332,30 +5332,30 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5365,30 +5365,30 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5398,30 +5398,30 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5431,30 +5431,30 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5464,30 +5464,30 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>157</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5497,30 +5497,30 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5530,30 +5530,30 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5563,30 +5563,30 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5596,11 +5596,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -5609,17 +5609,17 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H157" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5629,30 +5629,30 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H158" t="n">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5662,30 +5662,30 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
         <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H159" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5695,30 +5695,30 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H160" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5728,30 +5728,30 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H161" t="n">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5761,30 +5761,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H162" t="n">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5794,30 +5794,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H163" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5827,30 +5827,30 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H164" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5860,30 +5860,30 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H165" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5893,30 +5893,30 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5926,30 +5926,30 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H167" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5959,14 +5959,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -5975,14 +5975,14 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H168" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -5992,11 +5992,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -6005,17 +6005,17 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H169" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6025,14 +6025,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>174</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -6041,14 +6041,14 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H170" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6058,11 +6058,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -6074,14 +6074,14 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H171" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -6107,14 +6107,14 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H172" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6124,11 +6124,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -6140,14 +6140,14 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H173" t="n">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -6167,20 +6167,20 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H174" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6190,11 +6190,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -6203,17 +6203,17 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H175" t="n">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6223,11 +6223,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -6239,14 +6239,14 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H176" t="n">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6272,14 +6272,14 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H177" t="n">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -6302,17 +6302,17 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6322,11 +6322,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -6338,14 +6338,14 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6371,14 +6371,14 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6404,14 +6404,14 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="H181" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6421,30 +6421,30 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H182" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6454,30 +6454,30 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>187</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6487,30 +6487,30 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6520,30 +6520,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6586,20 +6586,20 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6619,30 +6619,30 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>193</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6652,30 +6652,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6685,14 +6685,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -6701,14 +6701,14 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6718,30 +6718,30 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>197</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6751,30 +6751,30 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H192" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>199</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6797,17 +6797,17 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -6830,17 +6830,17 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6850,11 +6850,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -6863,17 +6863,17 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
         <v>3</v>
       </c>
-      <c r="G195" t="n">
-        <v>21</v>
-      </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6883,11 +6883,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -6896,17 +6896,17 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6916,30 +6916,30 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>203</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6949,30 +6949,30 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H198" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -6982,30 +6982,30 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H199" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7015,30 +7015,30 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7048,30 +7048,30 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7081,30 +7081,30 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7114,30 +7114,30 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H203" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7147,30 +7147,30 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7180,30 +7180,30 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7213,30 +7213,30 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7246,30 +7246,30 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>213</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7279,30 +7279,30 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>214</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H208" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7312,14 +7312,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>215</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -7328,14 +7328,14 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H209" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7345,30 +7345,30 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>216</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -7391,17 +7391,17 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7411,30 +7411,30 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212" t="n">
         <v>2</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H212" t="n">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7444,30 +7444,30 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H213" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7477,30 +7477,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="H214" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7510,11 +7510,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -7523,17 +7523,17 @@
         <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H215" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7543,14 +7543,14 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -7559,14 +7559,14 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7576,30 +7576,30 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H217" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
@@ -7625,14 +7625,14 @@
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H218" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7642,11 +7642,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
@@ -7658,14 +7658,14 @@
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H219" t="n">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -7691,14 +7691,14 @@
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H220" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>227</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -7721,17 +7721,17 @@
         <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H221" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7741,30 +7741,30 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7774,11 +7774,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -7787,17 +7787,17 @@
         <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H223" t="n">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7807,30 +7807,30 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7840,11 +7840,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -7853,17 +7853,17 @@
         <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H225" t="n">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7873,30 +7873,30 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7906,30 +7906,30 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7939,30 +7939,30 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -7972,11 +7972,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -7985,17 +7985,17 @@
         <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -8018,17 +8018,17 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H230" t="n">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8038,11 +8038,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -8054,14 +8054,14 @@
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H231" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8071,30 +8071,30 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -8117,17 +8117,17 @@
         <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8137,30 +8137,30 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8170,30 +8170,30 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8203,11 +8203,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -8216,17 +8216,17 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8236,30 +8236,30 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H237" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8269,30 +8269,30 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H238" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8302,30 +8302,30 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H239" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8335,30 +8335,30 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H240" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8368,30 +8368,30 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H241" t="n">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8401,14 +8401,14 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -8417,14 +8417,14 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8434,30 +8434,30 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>12-05-2022</t>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>
@@ -8467,30 +8467,195 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>43</v>
+      </c>
+      <c r="H244" t="n">
+        <v>83</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>16-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>5</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>52</v>
+      </c>
+      <c r="H245" t="n">
+        <v>121</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>16-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>22</v>
+      </c>
+      <c r="H246" t="n">
+        <v>56</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>16-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>4</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>16-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>16-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
           <t>259</t>
         </is>
       </c>
-      <c r="C244" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>12-05-2022</t>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>16-05-2022</t>
         </is>
       </c>
     </row>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="9">
   <si>
     <t>Código IE</t>
   </si>
@@ -40,760 +40,7 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>092</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>094</t>
-  </si>
-  <si>
-    <t>095</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>097</t>
-  </si>
-  <si>
-    <t>098</t>
-  </si>
-  <si>
-    <t>099</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>20-05-2022</t>
+    <t>24-05-2022</t>
   </si>
 </sst>
 </file>
@@ -1187,14 +434,14 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1203,27 +450,27 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1235,24 +482,24 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1261,27 +508,27 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1293,24 +540,24 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1319,27 +566,27 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1351,24 +598,24 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1377,27 +624,27 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1412,21 +659,21 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1438,24 +685,24 @@
         <v>38</v>
       </c>
       <c r="H10">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1467,18 +714,18 @@
         <v>48</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1496,24 +743,24 @@
         <v>63</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1525,24 +772,24 @@
         <v>19</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
+      <c r="B14">
+        <v>13</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1557,21 +804,21 @@
         <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
+      <c r="B15">
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1583,24 +830,24 @@
         <v>53</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
+      <c r="B16">
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1612,24 +859,24 @@
         <v>61</v>
       </c>
       <c r="H16">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
+      <c r="B17">
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1641,24 +888,24 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
+      <c r="B18">
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1667,27 +914,27 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
+      <c r="B19">
+        <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1696,27 +943,27 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
+      <c r="B20">
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1728,24 +975,24 @@
         <v>27</v>
       </c>
       <c r="H20">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
+      <c r="B21">
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1757,24 +1004,24 @@
         <v>27</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
+      <c r="B22">
+        <v>21</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1786,24 +1033,24 @@
         <v>22</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
+      <c r="B23">
+        <v>22</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1818,21 +1065,21 @@
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
+      <c r="B24">
+        <v>23</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1844,24 +1091,24 @@
         <v>17</v>
       </c>
       <c r="H24">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
+      <c r="B25">
+        <v>24</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1873,18 +1120,18 @@
         <v>19</v>
       </c>
       <c r="H25">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
+      <c r="B26">
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1899,27 +1146,27 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
+      <c r="B27">
+        <v>26</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1934,21 +1181,21 @@
         <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
+      <c r="B28">
+        <v>27</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1960,24 +1207,24 @@
         <v>34</v>
       </c>
       <c r="H28">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
+      <c r="B29">
+        <v>28</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1989,24 +1236,24 @@
         <v>26</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
+      <c r="B30">
+        <v>29</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2021,21 +1268,21 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
+      <c r="B31">
+        <v>30</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2047,21 +1294,21 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
+      <c r="B32">
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2073,27 +1320,27 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
+      <c r="B33">
+        <v>32</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2105,18 +1352,18 @@
         <v>26</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
+      <c r="B34">
+        <v>33</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2128,24 +1375,24 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
+      <c r="B35">
+        <v>34</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2163,24 +1410,24 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
+      <c r="B36">
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2195,21 +1442,21 @@
         <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
+      <c r="B37">
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2221,24 +1468,24 @@
         <v>47</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
+      <c r="B38">
+        <v>37</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2250,24 +1497,24 @@
         <v>9</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
+      <c r="B39">
+        <v>38</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2279,18 +1526,18 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
+      <c r="B40">
+        <v>39</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -2308,24 +1555,24 @@
         <v>90</v>
       </c>
       <c r="H40">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
+      <c r="B41">
+        <v>40</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2337,24 +1584,24 @@
         <v>31</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
+      <c r="B42">
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2366,24 +1613,24 @@
         <v>39</v>
       </c>
       <c r="H42">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
+      <c r="B43">
+        <v>42</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2395,24 +1642,24 @@
         <v>19</v>
       </c>
       <c r="H43">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
+      <c r="B44">
+        <v>43</v>
       </c>
       <c r="C44">
         <v>6</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2427,21 +1674,21 @@
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
+      <c r="B45">
+        <v>44</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2450,27 +1697,27 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I45" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
+      <c r="B46">
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2482,24 +1729,24 @@
         <v>21</v>
       </c>
       <c r="H46">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
+      <c r="B47">
+        <v>46</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2514,21 +1761,21 @@
         <v>122</v>
       </c>
       <c r="I47" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
+      <c r="B48">
+        <v>47</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2543,21 +1790,21 @@
         <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
+      <c r="B49">
+        <v>48</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2572,21 +1819,21 @@
         <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
+      <c r="B50">
+        <v>49</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2598,24 +1845,24 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I50" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
+      <c r="B51">
+        <v>50</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2630,21 +1877,21 @@
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
+      <c r="B52">
+        <v>51</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2656,24 +1903,24 @@
         <v>14</v>
       </c>
       <c r="H52">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
+      <c r="B53">
+        <v>52</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2688,21 +1935,21 @@
         <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
+      <c r="B54">
+        <v>53</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2717,21 +1964,21 @@
         <v>73</v>
       </c>
       <c r="I54" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
+      <c r="B55">
+        <v>54</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2746,21 +1993,21 @@
         <v>119</v>
       </c>
       <c r="I55" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
+      <c r="B56">
+        <v>55</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2775,21 +2022,21 @@
         <v>71</v>
       </c>
       <c r="I56" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
+      <c r="B57">
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2804,21 +2051,21 @@
         <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
+      <c r="B58">
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2827,27 +2074,27 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
+      <c r="B59">
+        <v>58</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2859,24 +2106,24 @@
         <v>69</v>
       </c>
       <c r="H59">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I59" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
+      <c r="B60">
+        <v>59</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2891,21 +2138,21 @@
         <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
+      <c r="B61">
+        <v>60</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2914,27 +2161,27 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
+      <c r="B62">
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2946,24 +2193,24 @@
         <v>25</v>
       </c>
       <c r="H62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
+      <c r="B63">
+        <v>62</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2978,21 +2225,21 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
+      <c r="B64">
+        <v>63</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3007,21 +2254,21 @@
         <v>89</v>
       </c>
       <c r="I64" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
+      <c r="B65">
+        <v>64</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3033,24 +2280,24 @@
         <v>11</v>
       </c>
       <c r="H65">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
+      <c r="B66">
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3065,21 +2312,21 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
+      <c r="B67">
+        <v>66</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3091,24 +2338,24 @@
         <v>22</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
+      <c r="B68">
+        <v>67</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3120,24 +2367,24 @@
         <v>14</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I68" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
+      <c r="B69">
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3152,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
+      <c r="B70">
+        <v>69</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3178,24 +2425,24 @@
         <v>24</v>
       </c>
       <c r="H70">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
+      <c r="B71">
+        <v>70</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3207,24 +2454,24 @@
         <v>20</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I71" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
+      <c r="B72">
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3239,21 +2486,21 @@
         <v>67</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
+      <c r="B73">
+        <v>72</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3265,24 +2512,24 @@
         <v>37</v>
       </c>
       <c r="H73">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I73" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
+      <c r="B74">
+        <v>73</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3294,24 +2541,24 @@
         <v>16</v>
       </c>
       <c r="H74">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
+      <c r="B75">
+        <v>74</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3326,21 +2573,21 @@
         <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
+      <c r="B76">
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3352,24 +2599,24 @@
         <v>17</v>
       </c>
       <c r="H76">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
+      <c r="B77">
+        <v>76</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3381,24 +2628,24 @@
         <v>24</v>
       </c>
       <c r="H77">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I77" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
+      <c r="B78">
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3413,21 +2660,21 @@
         <v>54</v>
       </c>
       <c r="I78" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
+      <c r="B79">
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3436,27 +2683,27 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
+      <c r="B80">
+        <v>79</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3471,21 +2718,21 @@
         <v>77</v>
       </c>
       <c r="I80" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
+      <c r="B81">
+        <v>80</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3497,18 +2744,18 @@
         <v>23</v>
       </c>
       <c r="H81">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
+      <c r="B82">
+        <v>81</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3529,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>89</v>
+      <c r="B83">
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3555,24 +2802,24 @@
         <v>36</v>
       </c>
       <c r="H83">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>90</v>
+      <c r="B84">
+        <v>83</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3584,18 +2831,18 @@
         <v>6</v>
       </c>
       <c r="H84">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>91</v>
+      <c r="B85">
+        <v>84</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -3616,21 +2863,21 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>92</v>
+      <c r="B86">
+        <v>85</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3642,24 +2889,24 @@
         <v>39</v>
       </c>
       <c r="H86">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="I86" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>93</v>
+      <c r="B87">
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3671,24 +2918,24 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>94</v>
+      <c r="B88">
+        <v>87</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3700,24 +2947,24 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I88" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>95</v>
+      <c r="B89">
+        <v>88</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3729,24 +2976,24 @@
         <v>32</v>
       </c>
       <c r="H89">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I89" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>96</v>
+      <c r="B90">
+        <v>89</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3761,21 +3008,21 @@
         <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>97</v>
+      <c r="B91">
+        <v>90</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3790,21 +3037,21 @@
         <v>83</v>
       </c>
       <c r="I91" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>98</v>
+      <c r="B92">
+        <v>91</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3819,15 +3066,15 @@
         <v>132</v>
       </c>
       <c r="I92" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>99</v>
+      <c r="B93">
+        <v>92</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -3845,24 +3092,24 @@
         <v>20</v>
       </c>
       <c r="H93">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I93" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>100</v>
+      <c r="B94">
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3877,21 +3124,21 @@
         <v>63</v>
       </c>
       <c r="I94" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>101</v>
+      <c r="B95">
+        <v>94</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3906,21 +3153,21 @@
         <v>63</v>
       </c>
       <c r="I95" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>102</v>
+      <c r="B96">
+        <v>95</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3932,24 +3179,24 @@
         <v>32</v>
       </c>
       <c r="H96">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>103</v>
+      <c r="B97">
+        <v>96</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3964,21 +3211,21 @@
         <v>60</v>
       </c>
       <c r="I97" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>104</v>
+      <c r="B98">
+        <v>97</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3990,24 +3237,24 @@
         <v>14</v>
       </c>
       <c r="H98">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>105</v>
+      <c r="B99">
+        <v>98</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4022,21 +3269,21 @@
         <v>35</v>
       </c>
       <c r="I99" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>106</v>
+      <c r="B100">
+        <v>99</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4048,24 +3295,24 @@
         <v>8</v>
       </c>
       <c r="H100">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="I100" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>107</v>
+      <c r="B101">
+        <v>100</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4077,24 +3324,24 @@
         <v>2</v>
       </c>
       <c r="H101">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I101" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>108</v>
+      <c r="B102">
+        <v>101</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4106,24 +3353,24 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I102" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>109</v>
+      <c r="B103">
+        <v>102</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4132,27 +3379,27 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>110</v>
+      <c r="B104">
+        <v>103</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4164,24 +3411,24 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>111</v>
+      <c r="B105">
+        <v>104</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -4193,24 +3440,24 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I105" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>112</v>
+      <c r="B106">
+        <v>105</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4222,24 +3469,24 @@
         <v>7</v>
       </c>
       <c r="H106">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I106" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>113</v>
+      <c r="B107">
+        <v>106</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4248,27 +3495,27 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H107">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I107" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>114</v>
+      <c r="B108">
+        <v>107</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4280,24 +3527,24 @@
         <v>32</v>
       </c>
       <c r="H108">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>115</v>
+      <c r="B109">
+        <v>108</v>
       </c>
       <c r="C109">
         <v>5</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4306,27 +3553,27 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H109">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I109" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>116</v>
+      <c r="B110">
+        <v>109</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4341,21 +3588,21 @@
         <v>122</v>
       </c>
       <c r="I110" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>117</v>
+      <c r="B111">
+        <v>110</v>
       </c>
       <c r="C111">
         <v>4</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -4370,21 +3617,21 @@
         <v>123</v>
       </c>
       <c r="I111" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>118</v>
+      <c r="B112">
+        <v>111</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4399,21 +3646,21 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>119</v>
+      <c r="B113">
+        <v>112</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -4428,21 +3675,21 @@
         <v>56</v>
       </c>
       <c r="I113" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>120</v>
+      <c r="B114">
+        <v>113</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4457,21 +3704,21 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>121</v>
+      <c r="B115">
+        <v>114</v>
       </c>
       <c r="C115">
         <v>4</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -4483,24 +3730,24 @@
         <v>22</v>
       </c>
       <c r="H115">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I115" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>122</v>
+      <c r="B116">
+        <v>115</v>
       </c>
       <c r="C116">
         <v>4</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4515,21 +3762,21 @@
         <v>72</v>
       </c>
       <c r="I116" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>123</v>
+      <c r="B117">
+        <v>116</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -4544,21 +3791,21 @@
         <v>79</v>
       </c>
       <c r="I117" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>124</v>
+      <c r="B118">
+        <v>117</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4573,21 +3820,21 @@
         <v>74</v>
       </c>
       <c r="I118" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>125</v>
+      <c r="B119">
+        <v>118</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -4602,21 +3849,21 @@
         <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>126</v>
+      <c r="B120">
+        <v>119</v>
       </c>
       <c r="C120">
         <v>5</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -4631,21 +3878,21 @@
         <v>55</v>
       </c>
       <c r="I120" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>127</v>
+      <c r="B121">
+        <v>120</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4654,27 +3901,27 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>44</v>
       </c>
       <c r="I121" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>128</v>
+      <c r="B122">
+        <v>121</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4689,21 +3936,21 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>129</v>
+      <c r="B123">
+        <v>122</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4718,21 +3965,21 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>130</v>
+      <c r="B124">
+        <v>123</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -4747,21 +3994,21 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>131</v>
+      <c r="B125">
+        <v>124</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4773,18 +4020,18 @@
         <v>10</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>132</v>
+      <c r="B126">
+        <v>125</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4805,21 +4052,21 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>133</v>
+      <c r="B127">
+        <v>126</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -4834,21 +4081,21 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>134</v>
+      <c r="B128">
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4863,21 +4110,21 @@
         <v>55</v>
       </c>
       <c r="I128" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>135</v>
+      <c r="B129">
+        <v>128</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -4892,21 +4139,21 @@
         <v>59</v>
       </c>
       <c r="I129" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>136</v>
+      <c r="B130">
+        <v>129</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -4921,21 +4168,21 @@
         <v>67</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>137</v>
+      <c r="B131">
+        <v>130</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -4947,24 +4194,24 @@
         <v>27</v>
       </c>
       <c r="H131">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I131" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
-        <v>138</v>
+      <c r="B132">
+        <v>131</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -4979,21 +4226,21 @@
         <v>81</v>
       </c>
       <c r="I132" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>139</v>
+      <c r="B133">
+        <v>132</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5008,21 +4255,21 @@
         <v>62</v>
       </c>
       <c r="I133" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>140</v>
+      <c r="B134">
+        <v>133</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5037,15 +4284,15 @@
         <v>109</v>
       </c>
       <c r="I134" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>141</v>
+      <c r="B135">
+        <v>134</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5066,21 +4313,21 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>142</v>
+      <c r="B136">
+        <v>135</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -5095,21 +4342,21 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>143</v>
+      <c r="B137">
+        <v>136</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -5124,27 +4371,27 @@
         <v>13</v>
       </c>
       <c r="I137" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>144</v>
+      <c r="B138">
+        <v>137</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>55</v>
@@ -5153,21 +4400,21 @@
         <v>65</v>
       </c>
       <c r="I138" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>145</v>
+      <c r="B139">
+        <v>138</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -5182,21 +4429,21 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>146</v>
+      <c r="B140">
+        <v>139</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5205,27 +4452,27 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H140">
         <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>147</v>
+      <c r="B141">
+        <v>140</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -5240,21 +4487,21 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>148</v>
+      <c r="B142">
+        <v>141</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -5269,21 +4516,21 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>149</v>
+      <c r="B143">
+        <v>142</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -5298,21 +4545,21 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>150</v>
+      <c r="B144">
+        <v>144</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -5321,27 +4568,27 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>151</v>
+      <c r="B145">
+        <v>145</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -5356,21 +4603,21 @@
         <v>132</v>
       </c>
       <c r="I145" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>152</v>
+      <c r="B146">
+        <v>146</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -5385,21 +4632,21 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>153</v>
+      <c r="B147">
+        <v>147</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -5408,27 +4655,27 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>154</v>
+      <c r="B148">
+        <v>148</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -5443,21 +4690,21 @@
         <v>116</v>
       </c>
       <c r="I148" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>155</v>
+      <c r="B149">
+        <v>149</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -5472,21 +4719,21 @@
         <v>44</v>
       </c>
       <c r="I149" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>156</v>
+      <c r="B150">
+        <v>150</v>
       </c>
       <c r="C150">
         <v>5</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -5495,27 +4742,27 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H150">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I150" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>157</v>
+      <c r="B151">
+        <v>151</v>
       </c>
       <c r="C151">
         <v>4</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -5527,24 +4774,24 @@
         <v>48</v>
       </c>
       <c r="H151">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I151" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>158</v>
+      <c r="B152">
+        <v>152</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -5559,21 +4806,21 @@
         <v>41</v>
       </c>
       <c r="I152" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>159</v>
+      <c r="B153">
+        <v>153</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -5588,21 +4835,21 @@
         <v>77</v>
       </c>
       <c r="I153" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>160</v>
+      <c r="B154">
+        <v>154</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -5617,21 +4864,21 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>161</v>
+      <c r="B155">
+        <v>155</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -5646,21 +4893,21 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>162</v>
+      <c r="B156">
+        <v>156</v>
       </c>
       <c r="C156">
         <v>3</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -5675,15 +4922,15 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>163</v>
+      <c r="B157">
+        <v>157</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5704,21 +4951,21 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>164</v>
+      <c r="B158">
+        <v>158</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -5733,15 +4980,15 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>165</v>
+      <c r="B159">
+        <v>159</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -5762,21 +5009,21 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>166</v>
+      <c r="B160">
+        <v>160</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -5791,21 +5038,21 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>167</v>
+      <c r="B161">
+        <v>161</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -5820,21 +5067,21 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>168</v>
+      <c r="B162">
+        <v>162</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -5846,24 +5093,24 @@
         <v>37</v>
       </c>
       <c r="H162">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I162" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>169</v>
+      <c r="B163">
+        <v>163</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -5875,24 +5122,24 @@
         <v>23</v>
       </c>
       <c r="H163">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I163" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>170</v>
+      <c r="B164">
+        <v>164</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -5907,21 +5154,21 @@
         <v>135</v>
       </c>
       <c r="I164" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>171</v>
+      <c r="B165">
+        <v>165</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -5933,24 +5180,24 @@
         <v>41</v>
       </c>
       <c r="H165">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I165" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>172</v>
+      <c r="B166">
+        <v>166</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -5965,21 +5212,21 @@
         <v>108</v>
       </c>
       <c r="I166" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>173</v>
+      <c r="B167">
+        <v>167</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -5994,21 +5241,21 @@
         <v>50</v>
       </c>
       <c r="I167" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>174</v>
+      <c r="B168">
+        <v>168</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -6020,24 +5267,24 @@
         <v>18</v>
       </c>
       <c r="H168">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I168" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>175</v>
+      <c r="B169">
+        <v>169</v>
       </c>
       <c r="C169">
         <v>7</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -6049,24 +5296,24 @@
         <v>70</v>
       </c>
       <c r="H169">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I169" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
-        <v>176</v>
+      <c r="B170">
+        <v>170</v>
       </c>
       <c r="C170">
         <v>5</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -6078,24 +5325,24 @@
         <v>60</v>
       </c>
       <c r="H170">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="I170" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>177</v>
+      <c r="B171">
+        <v>171</v>
       </c>
       <c r="C171">
         <v>3</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -6107,24 +5354,24 @@
         <v>24</v>
       </c>
       <c r="H171">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I171" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>178</v>
+      <c r="B172">
+        <v>172</v>
       </c>
       <c r="C172">
         <v>6</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -6136,24 +5383,24 @@
         <v>55</v>
       </c>
       <c r="H172">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I172" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>179</v>
+      <c r="B173">
+        <v>173</v>
       </c>
       <c r="C173">
         <v>6</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -6165,24 +5412,24 @@
         <v>67</v>
       </c>
       <c r="H173">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I173" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>180</v>
+      <c r="B174">
+        <v>174</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -6197,21 +5444,21 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
-        <v>181</v>
+      <c r="B175">
+        <v>175</v>
       </c>
       <c r="C175">
         <v>9</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -6223,24 +5470,24 @@
         <v>34</v>
       </c>
       <c r="H175">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I175" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>182</v>
+      <c r="B176">
+        <v>176</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -6255,21 +5502,21 @@
         <v>63</v>
       </c>
       <c r="I176" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>183</v>
+      <c r="B177">
+        <v>177</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -6281,24 +5528,24 @@
         <v>17</v>
       </c>
       <c r="H177">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I177" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>184</v>
+      <c r="B178">
+        <v>178</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -6313,21 +5560,21 @@
         <v>45</v>
       </c>
       <c r="I178" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
-        <v>185</v>
+      <c r="B179">
+        <v>179</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -6339,24 +5586,24 @@
         <v>31</v>
       </c>
       <c r="H179">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I179" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>186</v>
+      <c r="B180">
+        <v>180</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -6368,24 +5615,24 @@
         <v>16</v>
       </c>
       <c r="H180">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I180" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
-        <v>187</v>
+      <c r="B181">
+        <v>181</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -6397,24 +5644,24 @@
         <v>35</v>
       </c>
       <c r="H181">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="I181" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>188</v>
+      <c r="B182">
+        <v>182</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -6429,21 +5676,21 @@
         <v>66</v>
       </c>
       <c r="I182" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>189</v>
+      <c r="B183">
+        <v>183</v>
       </c>
       <c r="C183">
         <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -6455,24 +5702,24 @@
         <v>31</v>
       </c>
       <c r="H183">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I183" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
-        <v>190</v>
+      <c r="B184">
+        <v>184</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -6487,21 +5734,21 @@
         <v>112</v>
       </c>
       <c r="I184" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
-        <v>191</v>
+      <c r="B185">
+        <v>185</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -6516,21 +5763,21 @@
         <v>45</v>
       </c>
       <c r="I185" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>192</v>
+      <c r="B186">
+        <v>186</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -6545,21 +5792,21 @@
         <v>165</v>
       </c>
       <c r="I186" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
-        <v>193</v>
+      <c r="B187">
+        <v>187</v>
       </c>
       <c r="C187">
         <v>2</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -6574,21 +5821,21 @@
         <v>145</v>
       </c>
       <c r="I187" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
-        <v>194</v>
+      <c r="B188">
+        <v>188</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -6600,24 +5847,24 @@
         <v>39</v>
       </c>
       <c r="H188">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I188" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
-        <v>195</v>
+      <c r="B189">
+        <v>189</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -6632,21 +5879,21 @@
         <v>61</v>
       </c>
       <c r="I189" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
-        <v>196</v>
+      <c r="B190">
+        <v>190</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -6661,21 +5908,21 @@
         <v>44</v>
       </c>
       <c r="I190" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
-        <v>197</v>
+      <c r="B191">
+        <v>191</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6690,21 +5937,21 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
-        <v>198</v>
+      <c r="B192">
+        <v>193</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -6716,24 +5963,24 @@
         <v>25</v>
       </c>
       <c r="H192">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I192" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
-        <v>199</v>
+      <c r="B193">
+        <v>194</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6742,21 +5989,21 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
-        <v>200</v>
+      <c r="B194">
+        <v>195</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -6777,21 +6024,21 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
-        <v>201</v>
+      <c r="B195">
+        <v>196</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -6806,21 +6053,21 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
-        <v>202</v>
+      <c r="B196">
+        <v>197</v>
       </c>
       <c r="C196">
         <v>3</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -6829,27 +6076,27 @@
         <v>1</v>
       </c>
       <c r="G196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H196">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I196" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
-        <v>203</v>
+      <c r="B197">
+        <v>198</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -6861,24 +6108,24 @@
         <v>11</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I197" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
-        <v>204</v>
+      <c r="B198">
+        <v>199</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -6890,24 +6137,24 @@
         <v>19</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I198" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
-        <v>205</v>
+      <c r="B199">
+        <v>200</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -6922,21 +6169,21 @@
         <v>56</v>
       </c>
       <c r="I199" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
-        <v>206</v>
+      <c r="B200">
+        <v>201</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -6951,21 +6198,21 @@
         <v>29</v>
       </c>
       <c r="I200" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
-        <v>207</v>
+      <c r="B201">
+        <v>202</v>
       </c>
       <c r="C201">
         <v>4</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -6980,21 +6227,21 @@
         <v>71</v>
       </c>
       <c r="I201" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
-        <v>208</v>
+      <c r="B202">
+        <v>203</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -7009,21 +6256,21 @@
         <v>30</v>
       </c>
       <c r="I202" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
-        <v>209</v>
+      <c r="B203">
+        <v>204</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -7035,24 +6282,24 @@
         <v>19</v>
       </c>
       <c r="H203">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I203" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
-        <v>210</v>
+      <c r="B204">
+        <v>205</v>
       </c>
       <c r="C204">
         <v>3</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -7064,24 +6311,24 @@
         <v>21</v>
       </c>
       <c r="H204">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I204" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
-        <v>211</v>
+      <c r="B205">
+        <v>206</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -7093,53 +6340,53 @@
         <v>28</v>
       </c>
       <c r="H205">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I205" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
-        <v>212</v>
+      <c r="B206">
+        <v>207</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>16</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I206" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
-        <v>213</v>
+      <c r="B207">
+        <v>208</v>
       </c>
       <c r="C207">
         <v>14</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -7151,24 +6398,24 @@
         <v>15</v>
       </c>
       <c r="H207">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I207" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
-        <v>214</v>
+      <c r="B208">
+        <v>209</v>
       </c>
       <c r="C208">
         <v>3</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -7180,24 +6427,24 @@
         <v>17</v>
       </c>
       <c r="H208">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
-        <v>215</v>
+      <c r="B209">
+        <v>210</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -7212,21 +6459,21 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
-        <v>216</v>
+      <c r="B210">
+        <v>211</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -7241,21 +6488,21 @@
         <v>97</v>
       </c>
       <c r="I210" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
-        <v>217</v>
+      <c r="B211">
+        <v>212</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -7267,24 +6514,24 @@
         <v>38</v>
       </c>
       <c r="H211">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I211" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
-        <v>218</v>
+      <c r="B212">
+        <v>213</v>
       </c>
       <c r="C212">
         <v>6</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -7299,21 +6546,21 @@
         <v>114</v>
       </c>
       <c r="I212" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
-        <v>219</v>
+      <c r="B213">
+        <v>214</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7328,21 +6575,21 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
-        <v>220</v>
+      <c r="B214">
+        <v>215</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -7357,21 +6604,21 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
-        <v>221</v>
+      <c r="B215">
+        <v>216</v>
       </c>
       <c r="C215">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -7386,21 +6633,21 @@
         <v>126</v>
       </c>
       <c r="I215" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
-        <v>222</v>
+      <c r="B216">
+        <v>217</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -7412,24 +6659,24 @@
         <v>38</v>
       </c>
       <c r="H216">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I216" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
-        <v>223</v>
+      <c r="B217">
+        <v>218</v>
       </c>
       <c r="C217">
         <v>3</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -7441,24 +6688,24 @@
         <v>18</v>
       </c>
       <c r="H217">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I217" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
-        <v>224</v>
+      <c r="B218">
+        <v>219</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -7470,24 +6717,24 @@
         <v>9</v>
       </c>
       <c r="H218">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I218" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
-        <v>225</v>
+      <c r="B219">
+        <v>220</v>
       </c>
       <c r="C219">
         <v>3</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -7502,21 +6749,21 @@
         <v>65</v>
       </c>
       <c r="I219" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
-        <v>226</v>
+      <c r="B220">
+        <v>221</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -7531,15 +6778,15 @@
         <v>54</v>
       </c>
       <c r="I220" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
-        <v>227</v>
+      <c r="B221">
+        <v>222</v>
       </c>
       <c r="C221">
         <v>3</v>
@@ -7560,21 +6807,21 @@
         <v>119</v>
       </c>
       <c r="I221" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
-        <v>228</v>
+      <c r="B222">
+        <v>223</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -7586,24 +6833,24 @@
         <v>32</v>
       </c>
       <c r="H222">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I222" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
-        <v>229</v>
+      <c r="B223">
+        <v>224</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -7615,24 +6862,24 @@
         <v>69</v>
       </c>
       <c r="H223">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I223" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
-        <v>230</v>
+      <c r="B224">
+        <v>225</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -7644,24 +6891,24 @@
         <v>15</v>
       </c>
       <c r="H224">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="I224" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
-        <v>231</v>
+      <c r="B225">
+        <v>226</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -7676,21 +6923,21 @@
         <v>79</v>
       </c>
       <c r="I225" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
-        <v>232</v>
+      <c r="B226">
+        <v>227</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -7705,21 +6952,21 @@
         <v>55</v>
       </c>
       <c r="I226" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
-        <v>233</v>
+      <c r="B227">
+        <v>228</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -7734,18 +6981,18 @@
         <v>51</v>
       </c>
       <c r="I227" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
-        <v>234</v>
+      <c r="B228">
+        <v>229</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -7760,24 +7007,24 @@
         <v>20</v>
       </c>
       <c r="H228">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
-        <v>235</v>
+      <c r="B229">
+        <v>230</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -7792,21 +7039,21 @@
         <v>72</v>
       </c>
       <c r="I229" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
-        <v>236</v>
+      <c r="B230">
+        <v>231</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -7821,15 +7068,15 @@
         <v>74</v>
       </c>
       <c r="I230" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
-        <v>237</v>
+      <c r="B231">
+        <v>232</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -7844,27 +7091,27 @@
         <v>1</v>
       </c>
       <c r="G231">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
-        <v>238</v>
+      <c r="B232">
+        <v>233</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -7879,15 +7126,15 @@
         <v>141</v>
       </c>
       <c r="I232" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
-        <v>239</v>
+      <c r="B233">
+        <v>234</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -7905,24 +7152,24 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I233" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
-        <v>240</v>
+      <c r="B234">
+        <v>235</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -7937,21 +7184,21 @@
         <v>121</v>
       </c>
       <c r="I234" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
-        <v>241</v>
+      <c r="B235">
+        <v>236</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -7966,21 +7213,21 @@
         <v>119</v>
       </c>
       <c r="I235" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
-        <v>242</v>
+      <c r="B236">
+        <v>237</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -7992,24 +7239,24 @@
         <v>27</v>
       </c>
       <c r="H236">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I236" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
-        <v>243</v>
+      <c r="B237">
+        <v>238</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -8024,21 +7271,21 @@
         <v>109</v>
       </c>
       <c r="I237" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
-        <v>244</v>
+      <c r="B238">
+        <v>239</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -8053,21 +7300,21 @@
         <v>25</v>
       </c>
       <c r="I238" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="s">
-        <v>245</v>
+      <c r="B239">
+        <v>240</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -8082,21 +7329,21 @@
         <v>55</v>
       </c>
       <c r="I239" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="s">
-        <v>246</v>
+      <c r="B240">
+        <v>241</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -8111,15 +7358,15 @@
         <v>81</v>
       </c>
       <c r="I240" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
-        <v>247</v>
+      <c r="B241">
+        <v>242</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -8140,21 +7387,21 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
-        <v>248</v>
+      <c r="B242">
+        <v>243</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -8169,21 +7416,21 @@
         <v>50</v>
       </c>
       <c r="I242" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="s">
-        <v>249</v>
+      <c r="B243">
+        <v>244</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -8195,18 +7442,18 @@
         <v>40</v>
       </c>
       <c r="H243">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I243" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="s">
-        <v>250</v>
+      <c r="B244">
+        <v>245</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -8221,27 +7468,27 @@
         <v>0</v>
       </c>
       <c r="G244">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H244">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I244" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="s">
-        <v>251</v>
+      <c r="B245">
+        <v>246</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -8256,21 +7503,21 @@
         <v>65</v>
       </c>
       <c r="I245" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="s">
-        <v>252</v>
+      <c r="B246">
+        <v>247</v>
       </c>
       <c r="C246">
         <v>3</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -8285,21 +7532,21 @@
         <v>104</v>
       </c>
       <c r="I246" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
-        <v>253</v>
+      <c r="B247">
+        <v>248</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -8314,21 +7561,21 @@
         <v>12</v>
       </c>
       <c r="I247" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
-        <v>254</v>
+      <c r="B248">
+        <v>249</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -8343,21 +7590,21 @@
         <v>149</v>
       </c>
       <c r="I248" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="s">
-        <v>255</v>
+      <c r="B249">
+        <v>250</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -8369,24 +7616,24 @@
         <v>43</v>
       </c>
       <c r="H249">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="I249" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="s">
-        <v>256</v>
+      <c r="B250">
+        <v>251</v>
       </c>
       <c r="C250">
         <v>5</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -8401,21 +7648,21 @@
         <v>121</v>
       </c>
       <c r="I250" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="s">
-        <v>257</v>
+      <c r="B251">
+        <v>252</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -8430,15 +7677,15 @@
         <v>56</v>
       </c>
       <c r="I251" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
-        <v>258</v>
+      <c r="B252">
+        <v>259</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -8459,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>26</v>
       </c>
       <c r="H33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="H39" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -6574,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="H198" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -777,7 +777,7 @@
         <v>48</v>
       </c>
       <c r="H11" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="H41" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>52</v>
@@ -3660,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>22</v>
@@ -5799,7 +5799,7 @@
         <v>67</v>
       </c>
       <c r="H173" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="H198" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H247" t="n">
         <v>12</v>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
@@ -1602,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -2532,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -2625,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
@@ -3214,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -4671,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -4733,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -4795,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -4826,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -5105,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -5322,7 +5322,7 @@
         <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -5384,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -5477,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -5508,7 +5508,7 @@
         <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -5539,7 +5539,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
         <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>5</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -5725,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -5756,7 +5756,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -5787,7 +5787,7 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -5799,7 +5799,7 @@
         <v>67</v>
       </c>
       <c r="H173" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -6035,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -6097,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -6159,7 +6159,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -6221,7 +6221,7 @@
         <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -6283,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -6314,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -6345,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -6469,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -6500,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -6562,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -6593,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -6624,7 +6624,7 @@
         <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -6717,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -6779,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>14</v>
       </c>
       <c r="D207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -6872,7 +6872,7 @@
         <v>3</v>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="D210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -7027,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -7151,7 +7151,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
         <v>2</v>
@@ -7182,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -7213,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="D219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -7244,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -7337,7 +7337,7 @@
         <v>2</v>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="D230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -7616,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -7678,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
         <v>1</v>
@@ -7709,7 +7709,7 @@
         <v>2</v>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -7740,7 +7740,7 @@
         <v>2</v>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -7833,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>3</v>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
         <v>1</v>
@@ -8019,7 +8019,7 @@
         <v>2</v>
       </c>
       <c r="D245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
@@ -8050,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="D246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>3</v>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -8174,7 +8174,7 @@
         <v>5</v>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
@@ -8220,37 +8220,6 @@
         <v>56</v>
       </c>
       <c r="I251" t="inlineStr">
-        <is>
-          <t>24-05-2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>259</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0</v>
-      </c>
-      <c r="E252" t="n">
-        <v>0</v>
-      </c>
-      <c r="F252" t="n">
-        <v>0</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="inlineStr">
         <is>
           <t>24-05-2022</t>
         </is>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -839,11 +839,11 @@
         <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1087,11 +1087,11 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1239,14 +1239,14 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
         <v>49</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1425,14 +1425,14 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>52</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1459,11 +1459,11 @@
         <v>26</v>
       </c>
       <c r="H33" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1614,11 +1614,11 @@
         <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1707,11 +1707,11 @@
         <v>31</v>
       </c>
       <c r="H41" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1952,14 +1952,14 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H49" t="n">
         <v>110</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -2324,14 +2324,14 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H61" t="n">
         <v>52</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2513,11 +2513,11 @@
         <v>22</v>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -2882,14 +2882,14 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
         <v>31</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3660,11 +3660,11 @@
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3691,11 +3691,11 @@
         <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3812,14 +3812,14 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H109" t="n">
         <v>135</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4311,11 +4311,11 @@
         <v>10</v>
       </c>
       <c r="H125" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4618,14 +4618,14 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -4773,14 +4773,14 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H140" t="n">
         <v>4</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -4990,14 +4990,14 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5799,11 +5799,11 @@
         <v>67</v>
       </c>
       <c r="H173" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5830,11 +5830,11 @@
         <v>36</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -6819,14 +6819,14 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H206" t="n">
         <v>53</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7659,11 +7659,11 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8093,11 +8093,11 @@
         <v>8</v>
       </c>
       <c r="H247" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>24-05-2022</t>
+          <t>25-05-2022</t>
         </is>
       </c>
     </row>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>53</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
         <v>52</v>
@@ -1521,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" t="n">
         <v>31</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -3056,16 +3056,16 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
         <v>135</v>
@@ -3970,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         <v>134</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
         <v>96</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>29</v>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>49</v>
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>48</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>77</v>
@@ -5830,7 +5830,7 @@
         <v>36</v>
       </c>
       <c r="H174" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -6385,10 +6385,10 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -6401,10 +6401,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -6416,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6463,22 +6463,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6494,10 +6494,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -6509,10 +6509,10 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H196" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -6525,10 +6525,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -6540,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H197" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198" t="n">
         <v>2</v>
@@ -6571,10 +6571,10 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H198" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C199" t="n">
         <v>2</v>
@@ -6602,10 +6602,10 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H199" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C200" t="n">
         <v>2</v>
@@ -6633,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -6649,10 +6649,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -6664,10 +6664,10 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -6680,10 +6680,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -6695,10 +6695,10 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -6711,10 +6711,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -6726,10 +6726,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H203" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -6742,10 +6742,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -6757,10 +6757,10 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H204" t="n">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -6773,10 +6773,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -6788,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H205" t="n">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C206" t="n">
         <v>2</v>
@@ -6813,16 +6813,16 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H206" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -6835,25 +6835,25 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C207" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H207" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -6866,10 +6866,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -6881,10 +6881,10 @@
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -6897,10 +6897,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -6912,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C210" t="n">
         <v>2</v>
@@ -6943,10 +6943,10 @@
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H210" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -6959,10 +6959,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -6974,10 +6974,10 @@
         <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H211" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
@@ -6990,10 +6990,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C212" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -7005,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H212" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
@@ -7021,10 +7021,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -7036,10 +7036,10 @@
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
@@ -7052,10 +7052,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
@@ -7067,10 +7067,10 @@
         <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -7098,10 +7098,10 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H215" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -7129,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H216" t="n">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -7145,25 +7145,25 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H217" t="n">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -7176,25 +7176,25 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H218" t="n">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -7207,10 +7207,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H219" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
@@ -7238,10 +7238,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -7253,10 +7253,10 @@
         <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H220" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -7284,10 +7284,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H221" t="n">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
@@ -7300,13 +7300,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -7315,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H222" t="n">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -7331,13 +7331,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -7346,10 +7346,10 @@
         <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H223" t="n">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -7362,10 +7362,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -7377,10 +7377,10 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H224" t="n">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
@@ -7393,10 +7393,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -7408,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H225" t="n">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
@@ -7424,10 +7424,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
@@ -7439,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H226" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
@@ -7455,10 +7455,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -7470,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H227" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -7486,13 +7486,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -7501,10 +7501,10 @@
         <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -7517,13 +7517,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -7532,10 +7532,10 @@
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H229" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -7563,10 +7563,10 @@
         <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H230" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -7579,25 +7579,25 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C231" t="n">
         <v>2</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -7610,25 +7610,25 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H232" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -7641,25 +7641,25 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H233" t="n">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -7672,25 +7672,25 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C234" t="n">
         <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234" t="n">
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C235" t="n">
         <v>2</v>
@@ -7718,10 +7718,10 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H235" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -7749,10 +7749,10 @@
         <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H236" t="n">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -7765,10 +7765,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -7780,10 +7780,10 @@
         <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H237" t="n">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -7811,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H238" t="n">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -7827,10 +7827,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -7842,10 +7842,10 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H239" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -7858,10 +7858,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -7873,10 +7873,10 @@
         <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H240" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -7889,25 +7889,25 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -7920,25 +7920,25 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H242" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -7951,10 +7951,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -7966,10 +7966,10 @@
         <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H243" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -7982,25 +7982,25 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244" t="n">
         <v>2</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H244" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C245" t="n">
         <v>2</v>
@@ -8022,16 +8022,16 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H245" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -8044,10 +8044,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -8059,10 +8059,10 @@
         <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H246" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -8075,25 +8075,25 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H247" t="n">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -8106,25 +8106,25 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H248" t="n">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -8137,10 +8137,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -8152,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H249" t="n">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -8168,10 +8168,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -8183,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H250" t="n">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -8199,27 +8199,58 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
+        <v>251</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>52</v>
+      </c>
+      <c r="H251" t="n">
+        <v>121</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>25-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
         <v>252</v>
       </c>
-      <c r="C251" t="n">
-        <v>1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1</v>
-      </c>
-      <c r="E251" t="n">
-        <v>1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1</v>
-      </c>
-      <c r="G251" t="n">
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
         <v>22</v>
       </c>
-      <c r="H251" t="n">
+      <c r="H252" t="n">
         <v>56</v>
       </c>
-      <c r="I251" t="inlineStr">
+      <c r="I252" t="inlineStr">
         <is>
           <t>25-05-2022</t>
         </is>

--- a/data/InstrumentosCFK.xlsx
+++ b/data/InstrumentosCFK.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -839,11 +839,11 @@
         <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -901,11 +901,11 @@
         <v>53</v>
       </c>
       <c r="H15" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1087,11 +1087,11 @@
         <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1487,14 +1487,14 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>60</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1952,14 +1952,14 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H49" t="n">
         <v>110</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3102,11 +3102,11 @@
         <v>39</v>
       </c>
       <c r="H86" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3164,11 +3164,11 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3660,11 +3660,11 @@
         <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3691,11 +3691,11 @@
         <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3722,11 +3722,11 @@
         <v>7</v>
       </c>
       <c r="H106" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -3970,11 +3970,11 @@
         <v>22</v>
       </c>
       <c r="H114" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
         <v>142</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>31</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
         <v>17</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6354,14 +6354,14 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6540,14 +6540,14 @@
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H197" t="n">
         <v>48</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6695,14 +6695,14 @@
         <v>1</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H202" t="n">
         <v>71</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6850,14 +6850,14 @@
         <v>1</v>
       </c>
       <c r="G207" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H207" t="n">
         <v>53</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6884,11 +6884,11 @@
         <v>15</v>
       </c>
       <c r="H208" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6915,11 +6915,11 @@
         <v>17</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7008,11 +7008,11 @@
         <v>38</v>
       </c>
       <c r="H212" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7191,14 +7191,14 @@
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H218" t="n">
         <v>119</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>25-05-2022</t>
+          <t>26-05-2022</t>
         </is>
       </c>
     </row>
